--- a/True algo/DataFiltered1.xlsx
+++ b/True algo/DataFiltered1.xlsx
@@ -605,7 +605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O809"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H458" sqref="H458"/>
     </sheetView>
   </sheetViews>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C90">
         <f ca="1">RANDBETWEEN(1223.37,1232.85)</f>
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="D90" s="3">
         <v>0</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="F90" s="3">
         <f ca="1">C90-0.15</f>
-        <v>1231.8499999999999</v>
+        <v>1225.8499999999999</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>3</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C115">
         <f ca="1">RANDBETWEEN(1183.4,1198.12)</f>
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="F115">
         <f ca="1">C115+0.01</f>
-        <v>1198.01</v>
+        <v>1194.01</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>3</v>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="C124">
         <f ca="1">RANDBETWEEN(1153.88,1167.34)</f>
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="F124">
         <f ca="1">C124+0.1</f>
-        <v>1160.0999999999999</v>
+        <v>1154.0999999999999</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>3</v>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="C125">
         <f ca="1">RANDBETWEEN(1150.39,1165.98)</f>
-        <v>1158</v>
+        <v>1164</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="F125">
         <f ca="1">C125+0.2</f>
-        <v>1158.2</v>
+        <v>1164.2</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>3</v>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="C254" s="3">
         <f ca="1">RANDBETWEEN(1323.37,1330.09)</f>
-        <v>1324</v>
+        <v>1330</v>
       </c>
       <c r="D254" s="3">
         <v>0</v>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="F254" s="3">
         <f ca="1">C254+0.06</f>
-        <v>1324.06</v>
+        <v>1330.06</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>3</v>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="C275">
         <f ca="1">RANDBETWEEN(1283.96,1295.81)</f>
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="D275" s="3">
         <v>0</v>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="F275">
         <f ca="1">C275-0.1</f>
-        <v>1294.9000000000001</v>
+        <v>1286.9000000000001</v>
       </c>
       <c r="G275" s="5" t="s">
         <v>3</v>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="C283">
         <f ca="1">RANDBETWEEN(1338.79,1345.58)</f>
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -6323,7 +6323,7 @@
       </c>
       <c r="F283">
         <f ca="1">C283+0.01</f>
-        <v>1341.01</v>
+        <v>1342.01</v>
       </c>
       <c r="G283" s="5" t="s">
         <v>3</v>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="C289">
         <f ca="1">RANDBETWEEN(1363.04,1372.51)</f>
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="F289">
         <f ca="1">C289+0.02</f>
-        <v>1371.02</v>
+        <v>1366.02</v>
       </c>
       <c r="G289" s="5" t="s">
         <v>3</v>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="C423">
         <f ca="1">RANDBETWEEN(1382.56,1391.21)</f>
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="D423">
         <v>0</v>
@@ -9133,7 +9133,7 @@
       </c>
       <c r="F423">
         <f ca="1">C423-0.02</f>
-        <v>1387.98</v>
+        <v>1384.98</v>
       </c>
       <c r="G423" s="5" t="s">
         <v>3</v>
@@ -10667,7 +10667,7 @@
       </c>
       <c r="C491" s="3">
         <f ca="1">RANDBETWEEN(1444.55,1460.11)</f>
-        <v>1446</v>
+        <v>1451</v>
       </c>
       <c r="D491" s="3">
         <v>0</v>
@@ -10677,7 +10677,7 @@
       </c>
       <c r="F491" s="3">
         <f ca="1">C491-0.1</f>
-        <v>1445.9</v>
+        <v>1450.9</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.2">
@@ -11577,7 +11577,7 @@
       </c>
       <c r="C536">
         <f ca="1">RANDBETWEEN(1671.06,1690.27)</f>
-        <v>1674</v>
+        <v>1687</v>
       </c>
       <c r="D536">
         <v>0</v>
@@ -11587,7 +11587,7 @@
       </c>
       <c r="F536">
         <f ca="1">C536+0.01</f>
-        <v>1674.01</v>
+        <v>1687.01</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.2">
@@ -14245,7 +14245,7 @@
       </c>
       <c r="C669">
         <f ca="1">RANDBETWEEN(1378.94,1424.2)</f>
-        <v>1404</v>
+        <v>1386</v>
       </c>
       <c r="D669">
         <v>0</v>
@@ -14255,7 +14255,7 @@
       </c>
       <c r="F669">
         <f ca="1">C669-0.05</f>
-        <v>1403.95</v>
+        <v>1385.95</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.2">
@@ -14750,7 +14750,7 @@
       </c>
       <c r="C694">
         <f ca="1">RANDBETWEEN(1484.17,1505.98)</f>
-        <v>1492</v>
+        <v>1498</v>
       </c>
       <c r="D694">
         <v>0</v>
@@ -14760,7 +14760,7 @@
       </c>
       <c r="F694">
         <f ca="1">C694-0.08</f>
-        <v>1491.92</v>
+        <v>1497.92</v>
       </c>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.2">

--- a/True algo/DataFiltered1.xlsx
+++ b/True algo/DataFiltered1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="460" windowWidth="13680" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G824"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="E441" sqref="E441"/>
+    <sheetView tabSelected="1" topLeftCell="A790" workbookViewId="0">
+      <selection activeCell="A823" sqref="A823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C90">
         <f ca="1">RANDBETWEEN(1223.37,1232.85)</f>
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D90" s="3">
         <v>0</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="F90" s="3">
         <f ca="1">C90-0.15</f>
-        <v>1225.8499999999999</v>
+        <v>1227.8499999999999</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>3</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C115">
         <f ca="1">RANDBETWEEN(1183.4,1198.12)</f>
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="F115">
         <f ca="1">C115+0.01</f>
-        <v>1184.01</v>
+        <v>1187.01</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>3</v>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C116">
         <f ca="1">RANDBETWEEN(1180.23,1196.45)</f>
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="F116">
         <f ca="1">C116+0.12</f>
-        <v>1190.1199999999999</v>
+        <v>1187.1199999999999</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>3</v>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="C124">
         <f ca="1">RANDBETWEEN(1153.88,1167.34)</f>
-        <v>1159</v>
+        <v>1167</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="F124">
         <f ca="1">C124+0.1</f>
-        <v>1159.0999999999999</v>
+        <v>1167.0999999999999</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>3</v>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="C125">
         <f ca="1">RANDBETWEEN(1150.39,1165.98)</f>
-        <v>1157</v>
+        <v>1164</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="F125">
         <f ca="1">C125+0.2</f>
-        <v>1157.2</v>
+        <v>1164.2</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>3</v>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="C254" s="3">
         <f ca="1">RANDBETWEEN(1323.37,1330.09)</f>
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="D254" s="3">
         <v>0</v>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="F254" s="3">
         <f ca="1">C254+0.06</f>
-        <v>1327.06</v>
+        <v>1330.06</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>3</v>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="C275">
         <f ca="1">RANDBETWEEN(1283.96,1295.81)</f>
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="D275" s="3">
         <v>0</v>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="F275">
         <f ca="1">C275-0.1</f>
-        <v>1289.9000000000001</v>
+        <v>1286.9000000000001</v>
       </c>
       <c r="G275" s="5" t="s">
         <v>3</v>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="C283">
         <f ca="1">RANDBETWEEN(1338.79,1345.58)</f>
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -6323,7 +6323,7 @@
       </c>
       <c r="F283">
         <f ca="1">C283+0.01</f>
-        <v>1340.01</v>
+        <v>1344.01</v>
       </c>
       <c r="G283" s="5" t="s">
         <v>3</v>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="C289">
         <f ca="1">RANDBETWEEN(1363.04,1372.51)</f>
-        <v>1365</v>
+        <v>1372</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="F289">
         <f ca="1">C289+0.02</f>
-        <v>1365.02</v>
+        <v>1372.02</v>
       </c>
       <c r="G289" s="5" t="s">
         <v>3</v>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="C423">
         <f ca="1">RANDBETWEEN(1382.56,1391.21)</f>
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D423">
         <v>0</v>
@@ -9133,7 +9133,7 @@
       </c>
       <c r="F423">
         <f ca="1">C423-0.02</f>
-        <v>1387.98</v>
+        <v>1386.98</v>
       </c>
       <c r="G423" s="5" t="s">
         <v>3</v>
@@ -9328,7 +9328,7 @@
       </c>
       <c r="C433">
         <f ca="1">RANDBETWEEN(1405.32,1417.48)</f>
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="D433">
         <v>0</v>
@@ -9338,7 +9338,7 @@
       </c>
       <c r="F433">
         <f ca="1">C433+0.05</f>
-        <v>1415.05</v>
+        <v>1407.05</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.2">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="C493">
         <f ca="1">RANDBETWEEN(1386.61,1414.6)</f>
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="D493">
         <v>0</v>
@@ -10467,7 +10467,7 @@
       </c>
       <c r="F493">
         <f ca="1">C493-0.05</f>
-        <v>1392.95</v>
+        <v>1386.95</v>
       </c>
       <c r="G493" s="5" t="s">
         <v>3</v>
@@ -10722,7 +10722,7 @@
       </c>
       <c r="C506" s="3">
         <f ca="1">RANDBETWEEN(1444.55,1460.11)</f>
-        <v>1449</v>
+        <v>1459</v>
       </c>
       <c r="D506" s="3">
         <v>0</v>
@@ -10732,7 +10732,7 @@
       </c>
       <c r="F506" s="3">
         <f ca="1">C506-0.1</f>
-        <v>1448.9</v>
+        <v>1458.9</v>
       </c>
       <c r="G506" s="5" t="s">
         <v>3</v>
@@ -11130,7 +11130,7 @@
       </c>
       <c r="C526">
         <f ca="1">RANDBETWEEN(1582.56,1593.18)</f>
-        <v>1588</v>
+        <v>1593</v>
       </c>
       <c r="D526">
         <v>0</v>
@@ -11140,7 +11140,7 @@
       </c>
       <c r="F526">
         <f ca="1">C526+0.01</f>
-        <v>1588.01</v>
+        <v>1593.01</v>
       </c>
       <c r="G526" s="5" t="s">
         <v>3</v>
@@ -11635,7 +11635,7 @@
       </c>
       <c r="C551">
         <f ca="1">RANDBETWEEN(1671.06,1690.27)</f>
-        <v>1686</v>
+        <v>1678</v>
       </c>
       <c r="D551">
         <v>0</v>
@@ -11645,7 +11645,7 @@
       </c>
       <c r="F551">
         <f ca="1">C551+0.01</f>
-        <v>1686.01</v>
+        <v>1678.01</v>
       </c>
       <c r="G551" s="5" t="s">
         <v>3</v>
@@ -14303,7 +14303,7 @@
       </c>
       <c r="C684">
         <f ca="1">RANDBETWEEN(1378.94,1424.2)</f>
-        <v>1383</v>
+        <v>1424</v>
       </c>
       <c r="D684">
         <v>0</v>
@@ -14313,7 +14313,7 @@
       </c>
       <c r="F684">
         <f ca="1">C684-0.05</f>
-        <v>1382.95</v>
+        <v>1423.95</v>
       </c>
       <c r="G684" s="5" t="s">
         <v>3</v>
@@ -14808,7 +14808,7 @@
       </c>
       <c r="C709">
         <f ca="1">RANDBETWEEN(1484.17,1505.98)</f>
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="D709">
         <v>0</v>
@@ -14818,7 +14818,7 @@
       </c>
       <c r="F709">
         <f ca="1">C709-0.08</f>
-        <v>1495.92</v>
+        <v>1487.92</v>
       </c>
       <c r="G709" s="5" t="s">
         <v>3</v>
